--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2244250.791259148</v>
+        <v>-2246833.823328876</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,10 +716,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>4.44362591409764</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>132.6798977404867</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.645080455401</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>145.3241883236402</v>
       </c>
       <c r="V4" t="n">
-        <v>28.72165279050724</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>261.7337600035945</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>75.43406307983517</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>31.93582623763023</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>93.05572980479347</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>70.97585417237369</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.275899653938609</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>126.6623413033685</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>18.53989561617302</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505444</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>26.13627195705837</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,16 +1813,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>167.7243167060845</v>
       </c>
       <c r="T16" t="n">
-        <v>203.245538844455</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.30373791808164</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.92158678358409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>71.7968702969101</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>7.602497644398386</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.799772605715493</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>248.605403596635</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2725,13 @@
         <v>136.6275814559694</v>
       </c>
       <c r="G28" t="n">
-        <v>17.22312510455349</v>
+        <v>156.730671725307</v>
       </c>
       <c r="H28" t="n">
         <v>131.501246279262</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160368</v>
+        <v>72.47236975160369</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315985</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>11.52265699641246</v>
       </c>
       <c r="U28" t="n">
         <v>277.3910078222823</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.113487468971</v>
+        <v>1250.809680894881</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>881.8471639544689</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389514</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927149</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927149</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2751.318417769984</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769984</v>
+        <v>2401.014611195894</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508904</v>
+        <v>2027.548852934814</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533093</v>
+        <v>1637.409520959002</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.6654861422326</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143257</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143257</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068854</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459644</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181851</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181851</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181851</v>
+        <v>729.2011216450111</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181851</v>
+        <v>507.4345062145371</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181851</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="V4" t="n">
-        <v>891.8752353227233</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="W4" t="n">
-        <v>602.4580652857627</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="X4" t="n">
-        <v>602.4580652857627</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.6654861422326</v>
+        <v>360.6423967967187</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3249.409798296207</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3043.432050680429</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3043.432050680429</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2712.369163336858</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2359.600508066744</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2359.600508066744</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.461176090932</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>888.6285954771442</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757135</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452395</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452395</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V7" t="n">
-        <v>515.2942464737309</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W7" t="n">
-        <v>515.2942464737309</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078695</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3317.246327009233</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3317.246327009233</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3063.71585028307</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>3063.71585028307</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4875,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>342.366968906868</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>182.5649609029017</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="W10" t="n">
-        <v>342.366968906868</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="X10" t="n">
-        <v>342.366968906868</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="Y10" t="n">
-        <v>342.366968906868</v>
+        <v>350.2677975281828</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.917417812165</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>198.0274703142547</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>198.0274703142547</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356189</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356189</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2210.498878109345</v>
       </c>
       <c r="T16" t="n">
-        <v>1991.764021402259</v>
+        <v>1990.897413132286</v>
       </c>
       <c r="U16" t="n">
-        <v>1702.688794746457</v>
+        <v>1701.822186476484</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.688794746457</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1157.720528233636</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>929.7309773356189</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679489</v>
+        <v>929.7309773356189</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755757</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958732</v>
+        <v>734.6461798836015</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679663</v>
+        <v>565.7099969556946</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556306</v>
+        <v>565.7099969556946</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732375</v>
+        <v>417.7969033733014</v>
       </c>
       <c r="F19" t="n">
-        <v>189.0729639753271</v>
+        <v>417.7969033733014</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>250.6008040881813</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>108.88897293038</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261129</v>
+        <v>916.2946447138412</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557276</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278207</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859673</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1437.269284565176</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6312,10 +6312,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
         <v>2092.798483612594</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>895.574420274146</v>
+        <v>1036.491134032483</v>
       </c>
       <c r="C28" t="n">
-        <v>735.5205268078167</v>
+        <v>876.4372405661538</v>
       </c>
       <c r="D28" t="n">
-        <v>594.2861768570586</v>
+        <v>735.2028906153957</v>
       </c>
       <c r="E28" t="n">
-        <v>455.2553727362431</v>
+        <v>596.1720864945802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.2477146999104</v>
+        <v>458.1644284582475</v>
       </c>
       <c r="G28" t="n">
         <v>299.8506186347049</v>
@@ -6379,22 +6379,22 @@
         <v>167.0210769384806</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>182.7582133795879</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064188</v>
+        <v>453.1530078064187</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836511</v>
+        <v>852.257133883651</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
         <v>2087.322584687556</v>
@@ -6403,31 +6403,31 @@
         <v>2388.703572162407</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790599</v>
+        <v>2458.443924504578</v>
       </c>
       <c r="S28" t="n">
-        <v>2516.607338790599</v>
+        <v>2458.443924504578</v>
       </c>
       <c r="T28" t="n">
-        <v>2305.888163275117</v>
+        <v>2446.804877033454</v>
       </c>
       <c r="U28" t="n">
-        <v>2025.695226080892</v>
+        <v>2166.61193983923</v>
       </c>
       <c r="V28" t="n">
-        <v>1779.893027336583</v>
+        <v>1920.809741094921</v>
       </c>
       <c r="W28" t="n">
-        <v>1499.3581467612</v>
+        <v>1640.274860519537</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.25088532476</v>
+        <v>1421.167599083098</v>
       </c>
       <c r="Y28" t="n">
-        <v>1068.340595642808</v>
+        <v>1209.257309401145</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,13 +6643,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6658,13 +6658,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6847,22 +6847,22 @@
         <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,22 +7111,22 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150022</v>
@@ -7555,16 +7555,16 @@
         <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,13 +7734,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>323.3086325560373</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>216.5610709769263</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22753,25 +22753,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>140.8876498819727</v>
       </c>
       <c r="V4" t="n">
-        <v>223.4159905333208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711694</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.8900140445862</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.30196929556008</v>
       </c>
       <c r="T16" t="n">
-        <v>14.15991148283321</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>71.22040037418721</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>66.34424953498144</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>218.1071577446388</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405086</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3.532239727193009</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5075466207535</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315983</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>172.2328194346827</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>197.089326763914</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>49356.14660531239</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675042</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="J2" t="n">
         <v>60913.35287666378</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508471</v>
+        <v>224565.9756508468</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.9447400623</v>
+        <v>12392.94474006231</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569463</v>
+        <v>7034.773253569468</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006233</v>
+        <v>12392.94474006232</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26436,10 +26436,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>18330.12873445306</v>
+        <v>18330.12873445309</v>
       </c>
       <c r="K4" t="n">
         <v>23427.49926997313</v>
@@ -26448,16 +26448,16 @@
         <v>23427.49926997312</v>
       </c>
       <c r="M4" t="n">
+        <v>23427.49926997314</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23427.49926997318</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23427.49926997314</v>
+      </c>
+      <c r="P4" t="n">
         <v>23427.49926997315</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23427.49926997314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23427.49926997313</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.18667268</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
-        <v>-139952.5519256245</v>
+        <v>-139952.5519256246</v>
       </c>
       <c r="D6" t="n">
-        <v>-139952.5519256245</v>
+        <v>-139952.5519256246</v>
       </c>
       <c r="E6" t="n">
-        <v>-381435.6366613915</v>
+        <v>-381470.3745868272</v>
       </c>
       <c r="F6" t="n">
-        <v>-56023.17485403636</v>
+        <v>-56057.91277947202</v>
       </c>
       <c r="G6" t="n">
-        <v>-56023.17485403635</v>
+        <v>-56057.91277947203</v>
       </c>
       <c r="H6" t="n">
-        <v>-56023.17485403633</v>
+        <v>-56057.91277947203</v>
       </c>
       <c r="I6" t="n">
-        <v>-56023.17485403638</v>
+        <v>-56057.91277947204</v>
       </c>
       <c r="J6" t="n">
-        <v>-283844.5392733614</v>
+        <v>-283866.6986021331</v>
       </c>
       <c r="K6" t="n">
-        <v>-77406.42712412958</v>
+        <v>-77406.42712412959</v>
       </c>
       <c r="L6" t="n">
-        <v>-65013.48238406723</v>
+        <v>-65013.48238406728</v>
       </c>
       <c r="M6" t="n">
-        <v>-150068.510319579</v>
+        <v>-150068.5103195791</v>
       </c>
       <c r="N6" t="n">
-        <v>-65013.48238406727</v>
+        <v>-65013.48238406733</v>
       </c>
       <c r="O6" t="n">
-        <v>-72048.25563763673</v>
+        <v>-72048.25563763676</v>
       </c>
       <c r="P6" t="n">
         <v>-77406.42712412962</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507787</v>
+        <v>15.49118092507788</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961829</v>
+        <v>8.793466566961834</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507792</v>
+        <v>15.4911809250779</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507787</v>
+        <v>15.49118092507788</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>121.0000816598861</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>33.75369870834064</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>56.99632643241709</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>159.0819135190345</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>294.2970375986339</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>100.9118621342372</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>40.58447979525936</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>126.2151192981478</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961854</v>
+        <v>8.793466566961841</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>537.262354434964</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>614.59004755871</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,22 +33971,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,13 +33995,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35963,19 +35963,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>394.6661099905195</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991521</v>
+        <v>89.8399498299152</v>
       </c>
       <c r="K28" t="n">
         <v>273.1260549765968</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>471.9938031142656</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7666531334392</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>508.128623392977</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
